--- a/data/download_SH512100.xlsx
+++ b/data/download_SH512100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2000"/>
+  <dimension ref="A1:F2015"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48441,6 +48441,366 @@
         <v>2.332</v>
       </c>
     </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2001" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D2001" t="n">
+        <v>2.329</v>
+      </c>
+      <c r="E2001" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>2.329</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>20250127</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2002" t="n">
+        <v>2.336</v>
+      </c>
+      <c r="D2002" t="n">
+        <v>2.384</v>
+      </c>
+      <c r="E2002" t="n">
+        <v>2.393</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>2.334</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>20250205</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2003" t="n">
+        <v>2.352</v>
+      </c>
+      <c r="D2003" t="n">
+        <v>2.354</v>
+      </c>
+      <c r="E2003" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>2.339</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>20250206</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2004" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="D2004" t="n">
+        <v>2.347</v>
+      </c>
+      <c r="E2004" t="n">
+        <v>2.421</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>2.339</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2005" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="D2005" t="n">
+        <v>2.416</v>
+      </c>
+      <c r="E2005" t="n">
+        <v>2.484</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>2.414</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>20250210</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2006" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="D2006" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="E2006" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>20250211</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2007" t="n">
+        <v>2.478</v>
+      </c>
+      <c r="D2007" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E2007" t="n">
+        <v>2.488</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>2.453</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>20250212</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2008" t="n">
+        <v>2.515</v>
+      </c>
+      <c r="D2008" t="n">
+        <v>2.473</v>
+      </c>
+      <c r="E2008" t="n">
+        <v>2.518</v>
+      </c>
+      <c r="F2008" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>20250213</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2009" t="n">
+        <v>2.491</v>
+      </c>
+      <c r="D2009" t="n">
+        <v>2.512</v>
+      </c>
+      <c r="E2009" t="n">
+        <v>2.514</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>2.483</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2010" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D2010" t="n">
+        <v>2.486</v>
+      </c>
+      <c r="E2010" t="n">
+        <v>2.506</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>2.474</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>20250217</t>
+        </is>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2011" t="n">
+        <v>2.511</v>
+      </c>
+      <c r="D2011" t="n">
+        <v>2.508</v>
+      </c>
+      <c r="E2011" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>20250218</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2012" t="n">
+        <v>2.461</v>
+      </c>
+      <c r="D2012" t="n">
+        <v>2.505</v>
+      </c>
+      <c r="E2012" t="n">
+        <v>2.514</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>2.446</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>20250219</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2013" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="D2013" t="n">
+        <v>2.453</v>
+      </c>
+      <c r="E2013" t="n">
+        <v>2.518</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>2.453</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>20250220</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2014" t="n">
+        <v>2.533</v>
+      </c>
+      <c r="D2014" t="n">
+        <v>2.511</v>
+      </c>
+      <c r="E2014" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>2.508</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2015" t="n">
+        <v>2.581</v>
+      </c>
+      <c r="D2015" t="n">
+        <v>2.537</v>
+      </c>
+      <c r="E2015" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>2.525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512100.xlsx
+++ b/data/download_SH512100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2015"/>
+  <dimension ref="A1:F2016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48801,6 +48801,30 @@
         <v>2.525</v>
       </c>
     </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2016" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="D2016" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E2016" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>2.562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512100.xlsx
+++ b/data/download_SH512100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2016"/>
+  <dimension ref="A1:F2020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48825,6 +48825,102 @@
         <v>2.562</v>
       </c>
     </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2017" t="n">
+        <v>2.574</v>
+      </c>
+      <c r="D2017" t="n">
+        <v>2.553</v>
+      </c>
+      <c r="E2017" t="n">
+        <v>2.599</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>2.546</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2018" t="n">
+        <v>2.614</v>
+      </c>
+      <c r="D2018" t="n">
+        <v>2.576</v>
+      </c>
+      <c r="E2018" t="n">
+        <v>2.615</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>2.567</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2019" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D2019" t="n">
+        <v>2.608</v>
+      </c>
+      <c r="E2019" t="n">
+        <v>2.619</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2020" t="n">
+        <v>2.533</v>
+      </c>
+      <c r="D2020" t="n">
+        <v>2.586</v>
+      </c>
+      <c r="E2020" t="n">
+        <v>2.589</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>2.531</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512100.xlsx
+++ b/data/download_SH512100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2020"/>
+  <dimension ref="A1:F2021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48909,7 +48909,7 @@
         </is>
       </c>
       <c r="C2020" t="n">
-        <v>2.533</v>
+        <v>2.511</v>
       </c>
       <c r="D2020" t="n">
         <v>2.586</v>
@@ -48918,7 +48918,31 @@
         <v>2.589</v>
       </c>
       <c r="F2020" t="n">
-        <v>2.531</v>
+        <v>2.503</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2021" t="n">
+        <v>2.547</v>
+      </c>
+      <c r="D2021" t="n">
+        <v>2.514</v>
+      </c>
+      <c r="E2021" t="n">
+        <v>2.548</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH512100.xlsx
+++ b/data/download_SH512100.xlsx
@@ -48933,16 +48933,16 @@
         </is>
       </c>
       <c r="C2021" t="n">
-        <v>2.547</v>
+        <v>2.508</v>
       </c>
       <c r="D2021" t="n">
         <v>2.514</v>
       </c>
       <c r="E2021" t="n">
-        <v>2.548</v>
+        <v>2.552</v>
       </c>
       <c r="F2021" t="n">
-        <v>2.5</v>
+        <v>2.496</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH512100.xlsx
+++ b/data/download_SH512100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2021"/>
+  <dimension ref="A1:F2057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48945,6 +48945,870 @@
         <v>2.496</v>
       </c>
     </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2022" t="n">
+        <v>2.541</v>
+      </c>
+      <c r="D2022" t="n">
+        <v>2.492</v>
+      </c>
+      <c r="E2022" t="n">
+        <v>2.545</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2023" t="n">
+        <v>2.558</v>
+      </c>
+      <c r="D2023" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E2023" t="n">
+        <v>2.559</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>2.524</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2024" t="n">
+        <v>2.614</v>
+      </c>
+      <c r="D2024" t="n">
+        <v>2.572</v>
+      </c>
+      <c r="E2024" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="F2024" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2025" t="n">
+        <v>2.603</v>
+      </c>
+      <c r="D2025" t="n">
+        <v>2.608</v>
+      </c>
+      <c r="E2025" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F2025" t="n">
+        <v>2.588</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2026" t="n">
+        <v>2.606</v>
+      </c>
+      <c r="D2026" t="n">
+        <v>2.603</v>
+      </c>
+      <c r="E2026" t="n">
+        <v>2.613</v>
+      </c>
+      <c r="F2026" t="n">
+        <v>2.583</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2027" t="n">
+        <v>2.624</v>
+      </c>
+      <c r="D2027" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E2027" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="F2027" t="n">
+        <v>2.577</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2028" t="n">
+        <v>2.628</v>
+      </c>
+      <c r="D2028" t="n">
+        <v>2.627</v>
+      </c>
+      <c r="E2028" t="n">
+        <v>2.656</v>
+      </c>
+      <c r="F2028" t="n">
+        <v>2.622</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2029" t="n">
+        <v>2.588</v>
+      </c>
+      <c r="D2029" t="n">
+        <v>2.622</v>
+      </c>
+      <c r="E2029" t="n">
+        <v>2.627</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>2.561</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2030" t="n">
+        <v>2.631</v>
+      </c>
+      <c r="D2030" t="n">
+        <v>2.584</v>
+      </c>
+      <c r="E2030" t="n">
+        <v>2.633</v>
+      </c>
+      <c r="F2030" t="n">
+        <v>2.568</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2031" t="n">
+        <v>2.634</v>
+      </c>
+      <c r="D2031" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E2031" t="n">
+        <v>2.643</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>2.621</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2032" t="n">
+        <v>2.645</v>
+      </c>
+      <c r="D2032" t="n">
+        <v>2.639</v>
+      </c>
+      <c r="E2032" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2033" t="n">
+        <v>2.627</v>
+      </c>
+      <c r="D2033" t="n">
+        <v>2.635</v>
+      </c>
+      <c r="E2033" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>2.614</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2034" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="D2034" t="n">
+        <v>2.621</v>
+      </c>
+      <c r="E2034" t="n">
+        <v>2.639</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>2.609</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2035" t="n">
+        <v>2.562</v>
+      </c>
+      <c r="D2035" t="n">
+        <v>2.608</v>
+      </c>
+      <c r="E2035" t="n">
+        <v>2.613</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>2.555</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2036" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="D2036" t="n">
+        <v>2.559</v>
+      </c>
+      <c r="E2036" t="n">
+        <v>2.563</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>2.499</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2037" t="n">
+        <v>2.525</v>
+      </c>
+      <c r="D2037" t="n">
+        <v>2.536</v>
+      </c>
+      <c r="E2037" t="n">
+        <v>2.551</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>2.516</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2038" t="n">
+        <v>2.533</v>
+      </c>
+      <c r="D2038" t="n">
+        <v>2.519</v>
+      </c>
+      <c r="E2038" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>2.519</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2039" t="n">
+        <v>2.533</v>
+      </c>
+      <c r="D2039" t="n">
+        <v>2.529</v>
+      </c>
+      <c r="E2039" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2040" t="n">
+        <v>2.507</v>
+      </c>
+      <c r="D2040" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E2040" t="n">
+        <v>2.544</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>2.503</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2041" t="n">
+        <v>2.492</v>
+      </c>
+      <c r="D2041" t="n">
+        <v>2.497</v>
+      </c>
+      <c r="E2041" t="n">
+        <v>2.506</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>2.459</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2042" t="n">
+        <v>2.503</v>
+      </c>
+      <c r="D2042" t="n">
+        <v>2.493</v>
+      </c>
+      <c r="E2042" t="n">
+        <v>2.521</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>2.493</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2043" t="n">
+        <v>2.511</v>
+      </c>
+      <c r="D2043" t="n">
+        <v>2.497</v>
+      </c>
+      <c r="E2043" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>2.496</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2044" t="n">
+        <v>2.482</v>
+      </c>
+      <c r="D2044" t="n">
+        <v>2.492</v>
+      </c>
+      <c r="E2044" t="n">
+        <v>2.522</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>2.464</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2045" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="D2045" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="E2045" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>2.234</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2046" t="n">
+        <v>2.219</v>
+      </c>
+      <c r="D2046" t="n">
+        <v>2.199</v>
+      </c>
+      <c r="E2046" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>2.171</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2047" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="D2047" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="E2047" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>2.093</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2048" t="n">
+        <v>2.313</v>
+      </c>
+      <c r="D2048" t="n">
+        <v>2.295</v>
+      </c>
+      <c r="E2048" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>2.294</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2049" t="n">
+        <v>2.343</v>
+      </c>
+      <c r="D2049" t="n">
+        <v>2.297</v>
+      </c>
+      <c r="E2049" t="n">
+        <v>2.372</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>2.295</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2050" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="D2050" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="E2050" t="n">
+        <v>2.393</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>2.362</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2051" t="n">
+        <v>2.365</v>
+      </c>
+      <c r="D2051" t="n">
+        <v>2.372</v>
+      </c>
+      <c r="E2051" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>2.349</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2052" t="n">
+        <v>2.335</v>
+      </c>
+      <c r="D2052" t="n">
+        <v>2.353</v>
+      </c>
+      <c r="E2052" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>2.306</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2053" t="n">
+        <v>2.336</v>
+      </c>
+      <c r="D2053" t="n">
+        <v>2.323</v>
+      </c>
+      <c r="E2053" t="n">
+        <v>2.361</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2054" t="n">
+        <v>2.332</v>
+      </c>
+      <c r="D2054" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E2054" t="n">
+        <v>2.345</v>
+      </c>
+      <c r="F2054" t="n">
+        <v>2.317</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2055" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D2055" t="n">
+        <v>2.328</v>
+      </c>
+      <c r="E2055" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>2.318</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2056" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D2056" t="n">
+        <v>2.377</v>
+      </c>
+      <c r="E2056" t="n">
+        <v>2.391</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>2.368</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2057" t="n">
+        <v>2.394</v>
+      </c>
+      <c r="D2057" t="n">
+        <v>2.392</v>
+      </c>
+      <c r="E2057" t="n">
+        <v>2.409</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>2.382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512100.xlsx
+++ b/data/download_SH512100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2057"/>
+  <dimension ref="A1:F2059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49809,6 +49809,54 @@
         <v>2.382</v>
       </c>
     </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2058" t="n">
+        <v>2.371</v>
+      </c>
+      <c r="D2058" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E2058" t="n">
+        <v>2.394</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>2.357</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2059" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="D2059" t="n">
+        <v>2.371</v>
+      </c>
+      <c r="E2059" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>2.361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512100.xlsx
+++ b/data/download_SH512100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2059"/>
+  <dimension ref="A1:F2064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49857,6 +49857,126 @@
         <v>2.361</v>
       </c>
     </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2060" t="n">
+        <v>2.351</v>
+      </c>
+      <c r="D2060" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="E2060" t="n">
+        <v>2.378</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>2.345</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2061" t="n">
+        <v>2.363</v>
+      </c>
+      <c r="D2061" t="n">
+        <v>2.345</v>
+      </c>
+      <c r="E2061" t="n">
+        <v>2.372</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>2.337</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2062" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="D2062" t="n">
+        <v>2.363</v>
+      </c>
+      <c r="E2062" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>2.362</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2063" t="n">
+        <v>2.442</v>
+      </c>
+      <c r="D2063" t="n">
+        <v>2.395</v>
+      </c>
+      <c r="E2063" t="n">
+        <v>2.442</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>2.395</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>SH512100</t>
+        </is>
+      </c>
+      <c r="C2064" t="n">
+        <v>2.444</v>
+      </c>
+      <c r="D2064" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="E2064" t="n">
+        <v>2.495</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>2.428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
